--- a/analysis_specifications/analysis3.xlsx
+++ b/analysis_specifications/analysis3.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,16 +847,6 @@
       <c r="B49" t="inlineStr">
         <is>
           <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>1071</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>persons at risk at start of year 2012-2022 with 365d prior observation</t>
         </is>
       </c>
     </row>

--- a/analysis_specifications/analysis3.xlsx
+++ b/analysis_specifications/analysis3.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,459 +392,449 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>71</v>
+        <v>748</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction with inpatient admission</t>
+          <t>Psoriatic arthritis</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Psoriatic arthritis</t>
+          <t>Plaque Psoriasis</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plaque Psoriasis</t>
+          <t>Left Heart Failure</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Left Heart Failure</t>
+          <t>Essential Hypertension</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>770</v>
+        <v>858</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Essential Hypertension</t>
+          <t>Earliest event of Rheumatoid Arthritis</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
+          <t>Earliest event of Crohns disease</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Earliest event of Crohns disease</t>
+          <t>Earliest event of Ulcerative colitis</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Earliest event of Ulcerative colitis</t>
+          <t>Earliest event of Urinary tract infections (UTI)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>861</v>
+        <v>1032</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Earliest event of Urinary tract infections (UTI)</t>
+          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
+          <t>New users of Thiazide diuretics</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics</t>
+          <t>New users of Beta blockers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>New users of Beta blockers</t>
+          <t>New users of SGLT2 inhibitor</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor</t>
+          <t>New users of GLP-1 receptor antagonists</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists</t>
+          <t>New users of DPP-4 inhibitors</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>New users of DPP-4 inhibitors</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
+          <t>New users of JAK inhibitors</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors</t>
+          <t>New users of IL-23 inhibitors</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>New users of IL-23 inhibitors</t>
+          <t>New users of Fluoroquinolone systemic</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic</t>
+          <t>New users of Cephalosporin systemetic</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic</t>
+          <t>New users of Trimethoprim systemetic</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic</t>
+          <t>New users of Thiazide diuretics nested in essential hypertension</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics nested in essential hypertension</t>
+          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
+          <t>New users of dihydropyridine calcium channel blockers</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>New users of dihydropyridine calcium channel blockers</t>
+          <t>New users of Beta blockers nested in essential hypertension</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in essential hypertension</t>
+          <t>New users of Beta blockers nested in Left Heart Failure</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in Left Heart Failure</t>
+          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
+          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
+          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
+          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
+          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
+          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
+          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
+          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
+          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
+          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
+          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
+          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
+          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
+          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>1070</v>
-      </c>
-      <c r="B49" t="inlineStr">
         <is>
           <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
         </is>
@@ -857,7 +847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,7 +880,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="3">
@@ -934,167 +924,167 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia</t>
+          <t>Rhabdomyolysis</t>
         </is>
       </c>
       <c r="C6">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes</t>
+          <t>Sudden Cardiac arrest or cardiac death</t>
         </is>
       </c>
       <c r="C7">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
         </is>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rhabdomyolysis</t>
+          <t>Progressive multifocal leukoencephalopathy</t>
         </is>
       </c>
       <c r="C9">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sudden Cardiac arrest or cardiac death</t>
+          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
         </is>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
+          <t>Sudden Vision Loss</t>
         </is>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Progressive multifocal leukoencephalopathy</t>
+          <t>Acute Kidney Injury AKI</t>
         </is>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>239</v>
+        <v>720</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Narcolepsy events</t>
+          <t>Aplastic Anemia</t>
         </is>
       </c>
       <c r="C13">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>256</v>
+        <v>723</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Facial Palsy lower motor neuron including Bells Palsy</t>
+          <t>Earliest event of Acute Hepatic Failure</t>
         </is>
       </c>
       <c r="C14">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>267</v>
+        <v>724</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Acute Kidney Injury AKI, in persons with chronic kidney disease</t>
+          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
         </is>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>275</v>
+        <v>727</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
+          <t>Angioedema</t>
         </is>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>276</v>
+        <v>728</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sudden Vision Loss</t>
+          <t>Autoimmune hemolytic anemia</t>
         </is>
       </c>
       <c r="C17">
-        <v>365</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>277</v>
+        <v>729</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sudden Hearing Loss</t>
+          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
         </is>
       </c>
       <c r="C18">
@@ -1103,180 +1093,180 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>362</v>
+        <v>731</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Acute Kidney Injury AKI</t>
+          <t>All events of Sudden Hearing Loss, No congenital anomaly or middle or inner ear conditions</t>
         </is>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aplastic Anemia</t>
+          <t>All events of Severe Cutaneous Adverse Reaction (SCAR = SJS+TEN+DRESS)</t>
         </is>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure</t>
+          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
         </is>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
+          <t>All events of Acute Liver Injury</t>
         </is>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>All events of Acute Kidney Injury (AKI)</t>
+          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
         </is>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>All events of Anaphylaxis, Mini-Sentinel</t>
+          <t>Isolated Immune Thrombocytopenia (ITP), with a washout period of 365 days</t>
         </is>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Angioedema</t>
+          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
         </is>
       </c>
       <c r="C25">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>728</v>
+        <v>884</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Autoimmune hemolytic anemia</t>
+          <t>Diarrhea events</t>
         </is>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>729</v>
+        <v>888</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
+          <t>Gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C27">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>731</v>
+        <v>889</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>All events of Sudden Hearing Loss, No congenital anomaly or middle or inner ear conditions</t>
+          <t>Hyponatremia events</t>
         </is>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>732</v>
+        <v>890</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>All events of Severe Cutaneous Adverse Reaction (SCAR = SJS+TEN+DRESS)</t>
+          <t>Hypotension events</t>
         </is>
       </c>
       <c r="C29">
-        <v>365</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>733</v>
+        <v>891</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+          <t>Nausea events</t>
         </is>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>734</v>
+        <v>893</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+          <t>Persons with vertigo</t>
         </is>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>735</v>
+        <v>894</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury</t>
+          <t>Abdominal pain events</t>
         </is>
       </c>
       <c r="C32">
@@ -1285,11 +1275,11 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>736</v>
+        <v>895</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
+          <t>Abnormal weight gain events</t>
         </is>
       </c>
       <c r="C33">
@@ -1298,115 +1288,115 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>737</v>
+        <v>896</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Neutropenic Fever, Inpatient or ER, indexed on fever or Infection, 90 days era</t>
+          <t>Abnormal weight loss events</t>
         </is>
       </c>
       <c r="C34">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>738</v>
+        <v>921</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Autoimmune hemolytic anemia</t>
+          <t>Cardiovascular-related mortality</t>
         </is>
       </c>
       <c r="C35">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>739</v>
+        <v>923</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia (ITP), with a washout period of 365 days</t>
+          <t>Persons with chronic kidney disease</t>
         </is>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>740</v>
+        <v>925</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension (PAH)</t>
+          <t>Cough events</t>
         </is>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>741</v>
+        <v>929</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+          <t>Edema events</t>
         </is>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>881</v>
+        <v>930</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction events</t>
+          <t>Persons with end stage renal disease</t>
         </is>
       </c>
       <c r="C39">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>882</v>
+        <v>931</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Persons with decreased libido</t>
+          <t>Fall events</t>
         </is>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>884</v>
+        <v>932</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Diarrhea events</t>
+          <t>Persons with gout</t>
         </is>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>888</v>
+        <v>933</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gastrointestinal bleeding events</t>
+          <t>Headache events</t>
         </is>
       </c>
       <c r="C42">
@@ -1415,37 +1405,37 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>889</v>
+        <v>934</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hyponatremia events</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C43">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>890</v>
+        <v>936</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hypotension events</t>
+          <t>Persons with hepatic failure</t>
         </is>
       </c>
       <c r="C44">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>891</v>
+        <v>938</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nausea events</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C45">
@@ -1454,37 +1444,37 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>892</v>
+        <v>940</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) events</t>
+          <t>Hyperkalemia events</t>
         </is>
       </c>
       <c r="C46">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>893</v>
+        <v>941</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Persons with vertigo</t>
+          <t>Hypokalemia events</t>
         </is>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>894</v>
+        <v>942</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Abdominal pain events</t>
+          <t>Hypomagnesemia events</t>
         </is>
       </c>
       <c r="C48">
@@ -1493,37 +1483,37 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>895</v>
+        <v>965</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Abnormal weight gain events</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C49">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>896</v>
+        <v>967</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Abnormal weight loss events</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C50">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>898</v>
+        <v>980</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Acute renal failure events</t>
+          <t>Coronary Vessel Revascularization</t>
         </is>
       </c>
       <c r="C51">
@@ -1532,1028 +1522,261 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>900</v>
+        <v>989</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Anaphylactoid reaction events</t>
+          <t>Bladder Cancer</t>
         </is>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>901</v>
+        <v>990</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Persons with anemia</t>
+          <t>Bone Fracture</t>
         </is>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>917</v>
+        <v>996</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Persons with anxiety</t>
+          <t>Hypoglycemia</t>
         </is>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>918</v>
+        <v>999</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Persons with bradycardia</t>
+          <t>Lower extremity amputation</t>
         </is>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>919</v>
+        <v>1003</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Person with cardiac arrhythmia</t>
+          <t>Renal Cancer</t>
         </is>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>920</v>
+        <v>1004</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
+          <t>Thyroid tumor</t>
         </is>
       </c>
       <c r="C57">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>921</v>
+        <v>1075</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cardiovascular-related mortality</t>
+          <t>Narcolepsy</t>
         </is>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>922</v>
+        <v>1076</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Persons with chest pain or angina</t>
+          <t>Anaphylaxis</t>
         </is>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>923</v>
+        <v>1078</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease</t>
+          <t>Bells Palsy</t>
         </is>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>924</v>
+        <v>1079</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
+          <t>Encephalomyelitis</t>
         </is>
       </c>
       <c r="C61">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>925</v>
+        <v>1080</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cough events</t>
+          <t>Guillain Barre Syndrome</t>
         </is>
       </c>
       <c r="C62">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>927</v>
+        <v>1081</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Persons with dementia</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>928</v>
+        <v>1082</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Persons with depression</t>
+          <t>Myocarditis Pericarditis</t>
         </is>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>929</v>
+        <v>1083</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Edema events</t>
+          <t>Immune Thrombocytopenia (ITP)</t>
         </is>
       </c>
       <c r="C65">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>930</v>
+        <v>1084</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Persons with end stage renal disease</t>
+          <t>Disseminated Intravascular Coagulation</t>
         </is>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>931</v>
+        <v>1087</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fall events</t>
+          <t>Hemorrhagic Stroke</t>
         </is>
       </c>
       <c r="C67">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>932</v>
+        <v>1088</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Persons with gout</t>
+          <t>Deep Vein Thrombosis (DVT)</t>
         </is>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>933</v>
+        <v>1089</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Headache events</t>
+          <t>Non-hemorrhagic Stroke</t>
         </is>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>934</v>
+        <v>1090</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Pulmonary Embolism</t>
         </is>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>935</v>
+        <v>1091</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
+          <t>Thrombosis with Thrombocytopenia (TWT)</t>
         </is>
       </c>
       <c r="C71">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>936</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Persons with hepatic failure</t>
-        </is>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>938</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Hospitalization with heart failure events</t>
-        </is>
-      </c>
-      <c r="C73">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>939</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Hospitalization with preinfarction syndrome events</t>
-        </is>
-      </c>
-      <c r="C74">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>940</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Hyperkalemia events</t>
-        </is>
-      </c>
-      <c r="C75">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>941</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Hypokalemia events</t>
-        </is>
-      </c>
-      <c r="C76">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>942</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Hypomagnesemia events</t>
-        </is>
-      </c>
-      <c r="C77">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>943</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Persons with impotence</t>
-        </is>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>944</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Ischemic stroke events</t>
-        </is>
-      </c>
-      <c r="C79">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>945</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
-        </is>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>946</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Persons with measured renal dysfunction</t>
-        </is>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82">
-        <v>947</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Persons with neutropenia or agranulocytosis</t>
-        </is>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83">
-        <v>948</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Rash events</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>950</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Rhabdomyolysis events</t>
-        </is>
-      </c>
-      <c r="C84">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85">
-        <v>953</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Sudden cardiac death events in inpatient</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>954</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Syncope events</t>
-        </is>
-      </c>
-      <c r="C86">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>955</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Persons with thrombocytopenia</t>
-        </is>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>956</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Transient ischemic attack events</t>
-        </is>
-      </c>
-      <c r="C88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>957</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Persons with type 2 diabetes mellitus</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>963</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Vomiting events</t>
-        </is>
-      </c>
-      <c r="C90">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>964</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>965</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>3-point MACE</t>
-        </is>
-      </c>
-      <c r="C92">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>967</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>4-point MACE</t>
-        </is>
-      </c>
-      <c r="C93">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>976</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Glycemic control</t>
-        </is>
-      </c>
-      <c r="C94">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>979</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Hospitalization with heart failure indexed on hospitalization</t>
-        </is>
-      </c>
-      <c r="C95">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>980</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Coronary Vessel Revascularization</t>
-        </is>
-      </c>
-      <c r="C96">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>982</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Stroke (ischemic or hemorrhagic) in inpatient</t>
-        </is>
-      </c>
-      <c r="C97">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>986</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Acute pancreatitis2</t>
-        </is>
-      </c>
-      <c r="C98">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>989</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Bladder Cancer</t>
-        </is>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>990</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Bone Fracture</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>991</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Breast cancer Malignant tumor of breast</t>
-        </is>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102">
-        <v>992</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Diabetic ketoacidosis with inpatient or ER visit</t>
-        </is>
-      </c>
-      <c r="C102">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>994</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Genitourinary infection3</t>
-        </is>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>996</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Hypoglycemia</t>
-        </is>
-      </c>
-      <c r="C104">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>998</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Joint pain3</t>
-        </is>
-      </c>
-      <c r="C105">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>999</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Lower extremity amputation</t>
-        </is>
-      </c>
-      <c r="C106">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>1000</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Nausea3</t>
-        </is>
-      </c>
-      <c r="C107">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>1001</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Peripheral edema</t>
-        </is>
-      </c>
-      <c r="C108">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <v>1002</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Photosensitivity</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110">
-        <v>1003</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Renal Cancer</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111">
-        <v>1004</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Thyroid tumor</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112">
-        <v>1005</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Venous thromboembolism</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113">
-        <v>1006</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Vomiting</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
-        <v>1075</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Narcolepsy</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115">
-        <v>1076</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Anaphylaxis</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>1077</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Anaphylaxis v2</t>
-        </is>
-      </c>
-      <c r="C116">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>1078</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Bells Palsy</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>1079</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Encephalomyelitis</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>1080</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Guillain Barre Syndrome</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>1081</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Acute Myocardial Infarction including its complications</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>1082</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Myocarditis Pericarditis</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>1083</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>1084</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Disseminated Intravascular Coagulation</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>1085</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Appendicitis</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>1086</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Transverse Myelitis</t>
-        </is>
-      </c>
-      <c r="C125">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>1087</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Hemorrhagic Stroke</t>
-        </is>
-      </c>
-      <c r="C126">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>1088</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
-        </is>
-      </c>
-      <c r="C127">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>1089</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Non-hemorrhagic Stroke</t>
-        </is>
-      </c>
-      <c r="C128">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>1090</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Pulmonary Embolism</t>
-        </is>
-      </c>
-      <c r="C129">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>1091</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Thrombosis with Thrombocytopenia (TWT)</t>
-        </is>
-      </c>
-      <c r="C130">
         <v>365</v>
       </c>
     </row>

--- a/analysis_specifications/analysis3.xlsx
+++ b/analysis_specifications/analysis3.xlsx
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25">

--- a/analysis_specifications/analysis3.xlsx
+++ b/analysis_specifications/analysis3.xlsx
@@ -847,7 +847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,37 +1249,37 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Persons with vertigo</t>
+          <t>Stroke (ischemic or hemorrhagic) events</t>
         </is>
       </c>
       <c r="C31">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Abdominal pain events</t>
+          <t>Persons with vertigo</t>
         </is>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Abnormal weight gain events</t>
+          <t>Abdominal pain events</t>
         </is>
       </c>
       <c r="C33">
@@ -1288,11 +1288,11 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Abnormal weight loss events</t>
+          <t>Abnormal weight gain events</t>
         </is>
       </c>
       <c r="C34">
@@ -1301,76 +1301,76 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cardiovascular-related mortality</t>
+          <t>Abnormal weight loss events</t>
         </is>
       </c>
       <c r="C35">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease</t>
+          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C36">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cough events</t>
+          <t>Cardiovascular-related mortality</t>
         </is>
       </c>
       <c r="C37">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Edema events</t>
+          <t>Persons with chronic kidney disease</t>
         </is>
       </c>
       <c r="C38">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Persons with end stage renal disease</t>
+          <t>Cough events</t>
         </is>
       </c>
       <c r="C39">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fall events</t>
+          <t>Edema events</t>
         </is>
       </c>
       <c r="C40">
@@ -1379,11 +1379,11 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Persons with gout</t>
+          <t>Persons with end stage renal disease</t>
         </is>
       </c>
       <c r="C41">
@@ -1392,24 +1392,24 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Headache events</t>
+          <t>Fall events</t>
         </is>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Persons with gout</t>
         </is>
       </c>
       <c r="C43">
@@ -1418,63 +1418,63 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Persons with hepatic failure</t>
+          <t>Headache events</t>
         </is>
       </c>
       <c r="C44">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hyperkalemia events</t>
+          <t>Persons with hepatic failure</t>
         </is>
       </c>
       <c r="C46">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hypokalemia events</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C47">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hypomagnesemia events</t>
+          <t>Hyperkalemia events</t>
         </is>
       </c>
       <c r="C48">
@@ -1483,37 +1483,37 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Hypokalemia events</t>
         </is>
       </c>
       <c r="C49">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>Hypomagnesemia events</t>
         </is>
       </c>
       <c r="C50">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Coronary Vessel Revascularization</t>
+          <t>Transient ischemic attack events</t>
         </is>
       </c>
       <c r="C51">
@@ -1522,37 +1522,37 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Bladder Cancer</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C52">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bone Fracture</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C53">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hypoglycemia</t>
+          <t>Coronary Vessel Revascularization</t>
         </is>
       </c>
       <c r="C54">
@@ -1561,11 +1561,11 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lower extremity amputation</t>
+          <t>Bladder Cancer</t>
         </is>
       </c>
       <c r="C55">
@@ -1574,128 +1574,128 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Renal Cancer</t>
+          <t>Bone Fracture</t>
         </is>
       </c>
       <c r="C56">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Thyroid tumor</t>
+          <t>Hypoglycemia</t>
         </is>
       </c>
       <c r="C57">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1075</v>
+        <v>999</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Narcolepsy</t>
+          <t>Lower extremity amputation</t>
         </is>
       </c>
       <c r="C58">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1076</v>
+        <v>1003</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Anaphylaxis</t>
+          <t>Renal Cancer</t>
         </is>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1078</v>
+        <v>1004</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bells Palsy</t>
+          <t>Thyroid tumor</t>
         </is>
       </c>
       <c r="C60">
-        <v>183</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Encephalomyelitis</t>
+          <t>Narcolepsy</t>
         </is>
       </c>
       <c r="C61">
-        <v>183</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Guillain Barre Syndrome</t>
+          <t>Anaphylaxis</t>
         </is>
       </c>
       <c r="C62">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction including its complications</t>
+          <t>Bells Palsy</t>
         </is>
       </c>
       <c r="C63">
-        <v>365</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Myocarditis Pericarditis</t>
+          <t>Encephalomyelitis</t>
         </is>
       </c>
       <c r="C64">
-        <v>365</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
+          <t>Guillain Barre Syndrome</t>
         </is>
       </c>
       <c r="C65">
@@ -1704,11 +1704,11 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Disseminated Intravascular Coagulation</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C66">
@@ -1717,11 +1717,11 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hemorrhagic Stroke</t>
+          <t>Myocarditis Pericarditis</t>
         </is>
       </c>
       <c r="C67">
@@ -1730,11 +1730,11 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>Immune Thrombocytopenia (ITP)</t>
         </is>
       </c>
       <c r="C68">
@@ -1743,11 +1743,11 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Non-hemorrhagic Stroke</t>
+          <t>Disseminated Intravascular Coagulation</t>
         </is>
       </c>
       <c r="C69">
@@ -1756,11 +1756,11 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pulmonary Embolism</t>
+          <t>Hemorrhagic Stroke</t>
         </is>
       </c>
       <c r="C70">
@@ -1769,14 +1769,53 @@
     </row>
     <row r="71">
       <c r="A71">
+        <v>1088</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Deep Vein Thrombosis (DVT)</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1089</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Non-hemorrhagic Stroke</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1090</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Pulmonary Embolism</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
         <v>1091</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Thrombosis with Thrombocytopenia (TWT)</t>
         </is>
       </c>
-      <c r="C71">
+      <c r="C74">
         <v>365</v>
       </c>
     </row>

--- a/analysis_specifications/analysis3.xlsx
+++ b/analysis_specifications/analysis3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HowOften\analysis_specifications\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -10,13 +15,387 @@
     <sheet name="targets" sheetId="1" r:id="rId1"/>
     <sheet name="outcomes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+  <si>
+    <t>cohort_definition_id</t>
+  </si>
+  <si>
+    <t>cohort_definition_name</t>
+  </si>
+  <si>
+    <t>Acute Typical Pneumonia</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Psoriatic arthritis</t>
+  </si>
+  <si>
+    <t>Plaque Psoriasis</t>
+  </si>
+  <si>
+    <t>Left Heart Failure</t>
+  </si>
+  <si>
+    <t>Essential Hypertension</t>
+  </si>
+  <si>
+    <t>Earliest event of Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Earliest event of Crohns disease</t>
+  </si>
+  <si>
+    <t>Earliest event of Ulcerative colitis</t>
+  </si>
+  <si>
+    <t>Earliest event of Urinary tract infections (UTI)</t>
+  </si>
+  <si>
+    <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
+  </si>
+  <si>
+    <t>New users of Thiazide diuretics</t>
+  </si>
+  <si>
+    <t>New users of Beta blockers</t>
+  </si>
+  <si>
+    <t>New users of SGLT2 inhibitor</t>
+  </si>
+  <si>
+    <t>New users of GLP-1 receptor antagonists</t>
+  </si>
+  <si>
+    <t>New users of DPP-4 inhibitors</t>
+  </si>
+  <si>
+    <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
+  </si>
+  <si>
+    <t>New users of JAK inhibitors</t>
+  </si>
+  <si>
+    <t>New users of IL-23 inhibitors</t>
+  </si>
+  <si>
+    <t>New users of Fluoroquinolone systemic</t>
+  </si>
+  <si>
+    <t>New users of Cephalosporin systemetic</t>
+  </si>
+  <si>
+    <t>New users of Trimethoprim systemetic</t>
+  </si>
+  <si>
+    <t>New users of Thiazide diuretics nested in essential hypertension</t>
+  </si>
+  <si>
+    <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
+  </si>
+  <si>
+    <t>New users of dihydropyridine calcium channel blockers</t>
+  </si>
+  <si>
+    <t>New users of Beta blockers nested in essential hypertension</t>
+  </si>
+  <si>
+    <t>New users of Beta blockers nested in Left Heart Failure</t>
+  </si>
+  <si>
+    <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
+  </si>
+  <si>
+    <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
+  </si>
+  <si>
+    <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
+  </si>
+  <si>
+    <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
+  </si>
+  <si>
+    <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
+  </si>
+  <si>
+    <t>New users of GLP-1 receptor antagonists nested in obesity</t>
+  </si>
+  <si>
+    <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
+  </si>
+  <si>
+    <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
+  </si>
+  <si>
+    <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
+  </si>
+  <si>
+    <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
+  </si>
+  <si>
+    <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
+  </si>
+  <si>
+    <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
+  </si>
+  <si>
+    <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
+  </si>
+  <si>
+    <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
+  </si>
+  <si>
+    <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
+  </si>
+  <si>
+    <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
+  </si>
+  <si>
+    <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
+  </si>
+  <si>
+    <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
+  </si>
+  <si>
+    <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>clean_window</t>
+  </si>
+  <si>
+    <t>Acquired Pure Red Cell Aplasia</t>
+  </si>
+  <si>
+    <t>Febrile Neutropenia or Neutropenic Fever</t>
+  </si>
+  <si>
+    <t>Pancytopenia, Acquired</t>
+  </si>
+  <si>
+    <t>Neutropenia or unspecified leukopenia</t>
+  </si>
+  <si>
+    <t>Rhabdomyolysis</t>
+  </si>
+  <si>
+    <t>Sudden Cardiac arrest or cardiac death</t>
+  </si>
+  <si>
+    <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
+  </si>
+  <si>
+    <t>Progressive multifocal leukoencephalopathy</t>
+  </si>
+  <si>
+    <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
+  </si>
+  <si>
+    <t>Sudden Vision Loss</t>
+  </si>
+  <si>
+    <t>Acute Kidney Injury AKI</t>
+  </si>
+  <si>
+    <t>Aplastic Anemia</t>
+  </si>
+  <si>
+    <t>Earliest event of Acute Hepatic Failure</t>
+  </si>
+  <si>
+    <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
+  </si>
+  <si>
+    <t>Angioedema</t>
+  </si>
+  <si>
+    <t>Autoimmune hemolytic anemia</t>
+  </si>
+  <si>
+    <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
+  </si>
+  <si>
+    <t>All events of Sudden Hearing Loss, No congenital anomaly or middle or inner ear conditions</t>
+  </si>
+  <si>
+    <t>All events of Severe Cutaneous Adverse Reaction (SCAR = SJS+TEN+DRESS)</t>
+  </si>
+  <si>
+    <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+  </si>
+  <si>
+    <t>All events of Acute Liver Injury</t>
+  </si>
+  <si>
+    <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
+  </si>
+  <si>
+    <t>Isolated Immune Thrombocytopenia (ITP), with a washout period of 365 days</t>
+  </si>
+  <si>
+    <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+  </si>
+  <si>
+    <t>Diarrhea events</t>
+  </si>
+  <si>
+    <t>Gastrointestinal bleeding events</t>
+  </si>
+  <si>
+    <t>Hyponatremia events</t>
+  </si>
+  <si>
+    <t>Hypotension events</t>
+  </si>
+  <si>
+    <t>Nausea events</t>
+  </si>
+  <si>
+    <t>Stroke (ischemic or hemorrhagic) events</t>
+  </si>
+  <si>
+    <t>Persons with vertigo</t>
+  </si>
+  <si>
+    <t>Abdominal pain events</t>
+  </si>
+  <si>
+    <t>Abnormal weight gain events</t>
+  </si>
+  <si>
+    <t>Abnormal weight loss events</t>
+  </si>
+  <si>
+    <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
+  </si>
+  <si>
+    <t>Cardiovascular-related mortality</t>
+  </si>
+  <si>
+    <t>Persons with chronic kidney disease</t>
+  </si>
+  <si>
+    <t>Cough events</t>
+  </si>
+  <si>
+    <t>Edema events</t>
+  </si>
+  <si>
+    <t>Persons with end stage renal disease</t>
+  </si>
+  <si>
+    <t>Fall events</t>
+  </si>
+  <si>
+    <t>Persons with gout</t>
+  </si>
+  <si>
+    <t>Headache events</t>
+  </si>
+  <si>
+    <t>Persons with heart failure</t>
+  </si>
+  <si>
+    <t>Persons with hepatic failure</t>
+  </si>
+  <si>
+    <t>Hospitalization with heart failure events</t>
+  </si>
+  <si>
+    <t>Hyperkalemia events</t>
+  </si>
+  <si>
+    <t>Hypokalemia events</t>
+  </si>
+  <si>
+    <t>Hypomagnesemia events</t>
+  </si>
+  <si>
+    <t>Transient ischemic attack events</t>
+  </si>
+  <si>
+    <t>3-point MACE</t>
+  </si>
+  <si>
+    <t>4-point MACE</t>
+  </si>
+  <si>
+    <t>Coronary Vessel Revascularization</t>
+  </si>
+  <si>
+    <t>Bladder Cancer</t>
+  </si>
+  <si>
+    <t>Bone Fracture</t>
+  </si>
+  <si>
+    <t>Hypoglycemia</t>
+  </si>
+  <si>
+    <t>Lower extremity amputation</t>
+  </si>
+  <si>
+    <t>Renal Cancer</t>
+  </si>
+  <si>
+    <t>Thyroid tumor</t>
+  </si>
+  <si>
+    <t>Narcolepsy</t>
+  </si>
+  <si>
+    <t>Anaphylaxis</t>
+  </si>
+  <si>
+    <t>Bells Palsy</t>
+  </si>
+  <si>
+    <t>Encephalomyelitis</t>
+  </si>
+  <si>
+    <t>Guillain Barre Syndrome</t>
+  </si>
+  <si>
+    <t>Acute Myocardial Infarction including its complications</t>
+  </si>
+  <si>
+    <t>Myocarditis Pericarditis</t>
+  </si>
+  <si>
+    <t>Immune Thrombocytopenia (ITP)</t>
+  </si>
+  <si>
+    <t>Disseminated Intravascular Coagulation</t>
+  </si>
+  <si>
+    <t>Hemorrhagic Stroke</t>
+  </si>
+  <si>
+    <t>Deep Vein Thrombosis (DVT)</t>
+  </si>
+  <si>
+    <t>Non-hemorrhagic Stroke</t>
+  </si>
+  <si>
+    <t>Pulmonary Embolism</t>
+  </si>
+  <si>
+    <t>Thrombosis with Thrombocytopenia (TWT)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +443,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -110,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +529,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +564,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,493 +740,397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cohort_definition_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cohort_definition_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>19</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Acute Typical Pneumonia</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+        <v>1261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Obesity</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>748</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Psoriatic arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>749</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Plaque Psoriasis</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>765</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Left Heart Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>770</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Essential Hypertension</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>858</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>859</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Earliest event of Crohns disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>860</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Earliest event of Ulcerative colitis</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>861</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Earliest event of Urinary tract infections (UTI)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1032</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1035</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>New users of Thiazide diuretics</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1036</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>New users of Beta blockers</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1037</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>New users of SGLT2 inhibitor</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1038</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>New users of GLP-1 receptor antagonists</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1039</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>New users of DPP-4 inhibitors</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1040</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1041</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>New users of JAK inhibitors</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1042</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>New users of IL-23 inhibitors</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1043</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>New users of Fluoroquinolone systemic</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1044</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>New users of Cephalosporin systemetic</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1045</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>New users of Trimethoprim systemetic</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1046</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>New users of Thiazide diuretics nested in essential hypertension</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1047</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1048</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>New users of dihydropyridine calcium channel blockers</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1049</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>New users of Beta blockers nested in essential hypertension</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1050</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>New users of Beta blockers nested in Left Heart Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1051</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1052</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1053</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1054</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1055</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1056</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1057</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1058</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1059</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1060</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1061</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1062</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1063</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1064</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1065</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1066</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1067</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1068</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1069</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1070</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
-        </is>
+      <c r="B48" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -846,974 +1139,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cohort_definition_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cohort_definition_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>clean_window</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>207</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Acquired Pure Red Cell Aplasia</t>
-        </is>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
       <c r="C2">
         <v>9999</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>208</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Febrile Neutropenia or Neutropenic Fever</t>
-        </is>
+      <c r="B3" t="s">
+        <v>51</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>211</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pancytopenia, Acquired</t>
-        </is>
+      <c r="B4" t="s">
+        <v>52</v>
       </c>
       <c r="C4">
         <v>365</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>213</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Neutropenia or unspecified leukopenia</t>
-        </is>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5">
         <v>365</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>218</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rhabdomyolysis</t>
-        </is>
+      <c r="B6" t="s">
+        <v>54</v>
       </c>
       <c r="C6">
         <v>180</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>219</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sudden Cardiac arrest or cardiac death</t>
-        </is>
+      <c r="B7" t="s">
+        <v>55</v>
       </c>
       <c r="C7">
         <v>9999</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>222</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
-        </is>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8">
         <v>9999</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>229</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Progressive multifocal leukoencephalopathy</t>
-        </is>
+      <c r="B9" t="s">
+        <v>57</v>
       </c>
       <c r="C9">
         <v>9999</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>275</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
-        </is>
+      <c r="B10" t="s">
+        <v>58</v>
       </c>
       <c r="C10">
         <v>9999</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>276</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sudden Vision Loss</t>
-        </is>
+      <c r="B11" t="s">
+        <v>59</v>
       </c>
       <c r="C11">
         <v>365</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>362</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Acute Kidney Injury AKI</t>
-        </is>
+      <c r="B12" t="s">
+        <v>60</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>720</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Aplastic Anemia</t>
-        </is>
+      <c r="B13" t="s">
+        <v>61</v>
       </c>
       <c r="C13">
         <v>9999</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>723</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Earliest event of Acute Hepatic Failure</t>
-        </is>
+      <c r="B14" t="s">
+        <v>62</v>
       </c>
       <c r="C14">
         <v>9999</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>724</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
-        </is>
+      <c r="B15" t="s">
+        <v>63</v>
       </c>
       <c r="C15">
         <v>9999</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>727</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Angioedema</t>
-        </is>
+      <c r="B16" t="s">
+        <v>64</v>
       </c>
       <c r="C16">
         <v>180</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>728</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Autoimmune hemolytic anemia</t>
-        </is>
+      <c r="B17" t="s">
+        <v>65</v>
       </c>
       <c r="C17">
         <v>90</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>729</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
-        </is>
+      <c r="B18" t="s">
+        <v>66</v>
       </c>
       <c r="C18">
         <v>365</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>731</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>All events of Sudden Hearing Loss, No congenital anomaly or middle or inner ear conditions</t>
-        </is>
+      <c r="B19" t="s">
+        <v>67</v>
       </c>
       <c r="C19">
         <v>180</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>732</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>All events of Severe Cutaneous Adverse Reaction (SCAR = SJS+TEN+DRESS)</t>
-        </is>
+      <c r="B20" t="s">
+        <v>68</v>
       </c>
       <c r="C20">
         <v>365</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>734</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
-        </is>
+      <c r="B21" t="s">
+        <v>69</v>
       </c>
       <c r="C21">
         <v>365</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>735</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>All events of Acute Liver Injury</t>
-        </is>
+      <c r="B22" t="s">
+        <v>70</v>
       </c>
       <c r="C22">
         <v>90</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>736</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
-        </is>
+      <c r="B23" t="s">
+        <v>71</v>
       </c>
       <c r="C23">
         <v>90</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>739</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Isolated Immune Thrombocytopenia (ITP), with a washout period of 365 days</t>
-        </is>
+      <c r="B24" t="s">
+        <v>72</v>
       </c>
       <c r="C24">
         <v>365</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>741</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
-        </is>
+      <c r="B25" t="s">
+        <v>73</v>
       </c>
       <c r="C25">
         <v>9999</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>884</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Diarrhea events</t>
-        </is>
+      <c r="B26" t="s">
+        <v>74</v>
       </c>
       <c r="C26">
         <v>30</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>888</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Gastrointestinal bleeding events</t>
-        </is>
+      <c r="B27" t="s">
+        <v>75</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>889</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Hyponatremia events</t>
-        </is>
+      <c r="B28" t="s">
+        <v>76</v>
       </c>
       <c r="C28">
         <v>90</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>890</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Hypotension events</t>
-        </is>
+      <c r="B29" t="s">
+        <v>77</v>
       </c>
       <c r="C29">
         <v>90</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>891</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Nausea events</t>
-        </is>
+      <c r="B30" t="s">
+        <v>78</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>892</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Stroke (ischemic or hemorrhagic) events</t>
-        </is>
+      <c r="B31" t="s">
+        <v>79</v>
       </c>
       <c r="C31">
         <v>180</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>893</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Persons with vertigo</t>
-        </is>
+      <c r="B32" t="s">
+        <v>80</v>
       </c>
       <c r="C32">
         <v>9999</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>894</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Abdominal pain events</t>
-        </is>
+      <c r="B33" t="s">
+        <v>81</v>
       </c>
       <c r="C33">
         <v>90</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>895</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Abnormal weight gain events</t>
-        </is>
+      <c r="B34" t="s">
+        <v>82</v>
       </c>
       <c r="C34">
         <v>90</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>896</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Abnormal weight loss events</t>
-        </is>
+      <c r="B35" t="s">
+        <v>83</v>
       </c>
       <c r="C35">
         <v>90</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>920</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
-        </is>
+      <c r="B36" t="s">
+        <v>84</v>
       </c>
       <c r="C36">
         <v>180</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>921</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Cardiovascular-related mortality</t>
-        </is>
+      <c r="B37" t="s">
+        <v>85</v>
       </c>
       <c r="C37">
         <v>9999</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>923</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Persons with chronic kidney disease</t>
-        </is>
+      <c r="B38" t="s">
+        <v>86</v>
       </c>
       <c r="C38">
         <v>9999</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>925</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Cough events</t>
-        </is>
+      <c r="B39" t="s">
+        <v>87</v>
       </c>
       <c r="C39">
         <v>90</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>929</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Edema events</t>
-        </is>
+      <c r="B40" t="s">
+        <v>88</v>
       </c>
       <c r="C40">
         <v>180</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>930</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Persons with end stage renal disease</t>
-        </is>
+      <c r="B41" t="s">
+        <v>89</v>
       </c>
       <c r="C41">
         <v>9999</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>931</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Fall events</t>
-        </is>
+      <c r="B42" t="s">
+        <v>90</v>
       </c>
       <c r="C42">
         <v>180</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>932</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Persons with gout</t>
-        </is>
+      <c r="B43" t="s">
+        <v>91</v>
       </c>
       <c r="C43">
         <v>9999</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>933</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Headache events</t>
-        </is>
+      <c r="B44" t="s">
+        <v>92</v>
       </c>
       <c r="C44">
         <v>30</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>934</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Persons with heart failure</t>
-        </is>
+      <c r="B45" t="s">
+        <v>93</v>
       </c>
       <c r="C45">
         <v>9999</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>936</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Persons with hepatic failure</t>
-        </is>
+      <c r="B46" t="s">
+        <v>94</v>
       </c>
       <c r="C46">
         <v>9999</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>938</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Hospitalization with heart failure events</t>
-        </is>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47">
         <v>30</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>940</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Hyperkalemia events</t>
-        </is>
+      <c r="B48" t="s">
+        <v>96</v>
       </c>
       <c r="C48">
         <v>90</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>941</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Hypokalemia events</t>
-        </is>
+      <c r="B49" t="s">
+        <v>97</v>
       </c>
       <c r="C49">
         <v>90</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>942</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Hypomagnesemia events</t>
-        </is>
+      <c r="B50" t="s">
+        <v>98</v>
       </c>
       <c r="C50">
         <v>90</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>956</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Transient ischemic attack events</t>
-        </is>
+      <c r="B51" t="s">
+        <v>99</v>
       </c>
       <c r="C51">
         <v>30</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>965</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>3-point MACE</t>
-        </is>
+      <c r="B52" t="s">
+        <v>100</v>
       </c>
       <c r="C52">
         <v>180</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>967</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>4-point MACE</t>
-        </is>
+      <c r="B53" t="s">
+        <v>101</v>
       </c>
       <c r="C53">
         <v>180</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>980</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Coronary Vessel Revascularization</t>
-        </is>
+      <c r="B54" t="s">
+        <v>102</v>
       </c>
       <c r="C54">
         <v>30</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>989</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Bladder Cancer</t>
-        </is>
+      <c r="B55" t="s">
+        <v>103</v>
       </c>
       <c r="C55">
         <v>9999</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>990</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Bone Fracture</t>
-        </is>
+      <c r="B56" t="s">
+        <v>104</v>
       </c>
       <c r="C56">
         <v>90</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>996</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Hypoglycemia</t>
-        </is>
+      <c r="B57" t="s">
+        <v>105</v>
       </c>
       <c r="C57">
         <v>30</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>999</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Lower extremity amputation</t>
-        </is>
+      <c r="B58" t="s">
+        <v>106</v>
       </c>
       <c r="C58">
         <v>9999</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1003</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Renal Cancer</t>
-        </is>
+      <c r="B59" t="s">
+        <v>107</v>
       </c>
       <c r="C59">
         <v>9999</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1004</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Thyroid tumor</t>
-        </is>
+      <c r="B60" t="s">
+        <v>108</v>
       </c>
       <c r="C60">
         <v>9999</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1075</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Narcolepsy</t>
-        </is>
+      <c r="B61" t="s">
+        <v>109</v>
       </c>
       <c r="C61">
         <v>365</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1076</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Anaphylaxis</t>
-        </is>
+      <c r="B62" t="s">
+        <v>110</v>
       </c>
       <c r="C62">
         <v>30</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1078</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Bells Palsy</t>
-        </is>
+      <c r="B63" t="s">
+        <v>111</v>
       </c>
       <c r="C63">
         <v>183</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1079</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Encephalomyelitis</t>
-        </is>
+      <c r="B64" t="s">
+        <v>112</v>
       </c>
       <c r="C64">
         <v>183</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1080</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Guillain Barre Syndrome</t>
-        </is>
+      <c r="B65" t="s">
+        <v>113</v>
       </c>
       <c r="C65">
         <v>365</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1081</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Acute Myocardial Infarction including its complications</t>
-        </is>
+      <c r="B66" t="s">
+        <v>114</v>
       </c>
       <c r="C66">
         <v>365</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1082</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Myocarditis Pericarditis</t>
-        </is>
+      <c r="B67" t="s">
+        <v>115</v>
       </c>
       <c r="C67">
         <v>365</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1083</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
-        </is>
+      <c r="B68" t="s">
+        <v>116</v>
       </c>
       <c r="C68">
         <v>365</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1084</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Disseminated Intravascular Coagulation</t>
-        </is>
+      <c r="B69" t="s">
+        <v>117</v>
       </c>
       <c r="C69">
         <v>365</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1087</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Hemorrhagic Stroke</t>
-        </is>
+      <c r="B70" t="s">
+        <v>118</v>
       </c>
       <c r="C70">
         <v>365</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1088</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
-        </is>
+      <c r="B71" t="s">
+        <v>119</v>
       </c>
       <c r="C71">
         <v>365</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1089</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Non-hemorrhagic Stroke</t>
-        </is>
+      <c r="B72" t="s">
+        <v>120</v>
       </c>
       <c r="C72">
         <v>365</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1090</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Pulmonary Embolism</t>
-        </is>
+      <c r="B73" t="s">
+        <v>121</v>
       </c>
       <c r="C73">
         <v>365</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1091</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Thrombosis with Thrombocytopenia (TWT)</t>
-        </is>
+      <c r="B74" t="s">
+        <v>122</v>
       </c>
       <c r="C74">
         <v>365</v>
